--- a/Sufficient data/forecast_summary_B091ZG1ZC6.xlsx
+++ b/Sufficient data/forecast_summary_B091ZG1ZC6.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>5</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
